--- a/templates/PM-B-Lamp_2.xlsx
+++ b/templates/PM-B-Lamp_2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="9690" windowHeight="5985"/>
@@ -37,12 +37,6 @@
     <t>DAFTAR RINCIAN, JUMLAH DAN HARGA BARANG</t>
   </si>
   <si>
-    <t xml:space="preserve">               PENGADAAN BARANG ..................................................................</t>
-  </si>
-  <si>
-    <t>PT PLN (PERSERO) .....................</t>
-  </si>
-  <si>
     <t>NOMOR</t>
   </si>
   <si>
@@ -247,12 +241,6 @@
     <t>Sheet2</t>
   </si>
   <si>
-    <t>TANGGAL : .....................................</t>
-  </si>
-  <si>
-    <t>NOMOR     : .....................................</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -260,6 +248,18 @@
   </si>
   <si>
     <t xml:space="preserve">               RKS PEMILIHAN LANGSUNG</t>
+  </si>
+  <si>
+    <t>NOMOR     : #nomor</t>
+  </si>
+  <si>
+    <t>TANGGAL : #tanggal#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               PENGADAAN BARANG #namapengadaan#</t>
+  </si>
+  <si>
+    <t>PT PLN (PERSERO) KANTOR PUSAT</t>
   </si>
 </sst>
 </file>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H5"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1121,12 +1121,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15">
       <c r="B5" s="63" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="7" spans="2:8" ht="15">
       <c r="B7" s="63" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="8" spans="2:8" ht="15">
       <c r="B8" s="63" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="C8" s="62"/>
       <c r="D8" s="62"/>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="9" spans="2:8" ht="15">
       <c r="B9" s="63" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
@@ -1201,53 +1201,53 @@
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="E13" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="G13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="21" t="s">
+      <c r="H13" s="22" t="s">
         <v>10</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="13.5" thickBot="1">
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="13.5" thickBot="1">
@@ -1644,7 +1644,7 @@
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="58" spans="2:8" ht="13.5" thickBot="1">
       <c r="B58" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="59" spans="2:8" ht="13.5" thickBot="1">
       <c r="B59" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="60" spans="2:8" ht="13.5" thickBot="1">
       <c r="B60" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C62" s="57"/>
       <c r="D62" s="57"/>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="57" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C63" s="57"/>
       <c r="D63" s="57"/>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C64" s="57"/>
       <c r="D64" s="57"/>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="B65" s="57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C65" s="57"/>
       <c r="D65" s="57"/>
@@ -1742,7 +1742,7 @@
     <row r="66" spans="1:8">
       <c r="B66" s="55"/>
       <c r="C66" s="57" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D66" s="56"/>
       <c r="E66" s="56"/>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="53" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="3" spans="3:7" ht="15">
       <c r="C3" s="63" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D3" s="62"/>
       <c r="E3" s="62"/>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="4" spans="3:7" ht="15">
       <c r="C4" s="63" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="5" spans="3:7" ht="15">
       <c r="C5" s="63" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="62"/>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="6" spans="3:7" ht="15">
       <c r="C6" s="63" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="7" spans="3:7" ht="15">
       <c r="C7" s="63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="62"/>
@@ -1978,25 +1978,25 @@
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="47" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9" s="48"/>
     </row>
     <row r="10" spans="3:7" ht="15">
       <c r="C10" s="49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="3:7" ht="15.75" thickBot="1">
@@ -2004,18 +2004,18 @@
       <c r="D11" s="51"/>
       <c r="E11" s="51"/>
       <c r="F11" s="52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11" s="51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="3:7">
       <c r="C12" s="45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="4"/>
@@ -2024,7 +2024,7 @@
     <row r="13" spans="3:7">
       <c r="C13" s="45"/>
       <c r="D13" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="4"/>
@@ -2033,7 +2033,7 @@
     <row r="14" spans="3:7">
       <c r="C14" s="45"/>
       <c r="D14" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="4"/>
@@ -2042,7 +2042,7 @@
     <row r="15" spans="3:7">
       <c r="C15" s="45"/>
       <c r="D15" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="4"/>
@@ -2051,7 +2051,7 @@
     <row r="16" spans="3:7" ht="13.5" thickBot="1">
       <c r="C16" s="45"/>
       <c r="D16" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="4"/>
@@ -2060,7 +2060,7 @@
     <row r="17" spans="3:7" ht="13.5" thickBot="1">
       <c r="C17" s="45"/>
       <c r="D17" s="42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="29"/>
@@ -2068,10 +2068,10 @@
     </row>
     <row r="18" spans="3:7">
       <c r="C18" s="45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="4"/>
@@ -2080,7 +2080,7 @@
     <row r="19" spans="3:7">
       <c r="C19" s="45"/>
       <c r="D19" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="4"/>
@@ -2089,7 +2089,7 @@
     <row r="20" spans="3:7">
       <c r="C20" s="45"/>
       <c r="D20" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="4"/>
@@ -2098,7 +2098,7 @@
     <row r="21" spans="3:7">
       <c r="C21" s="45"/>
       <c r="D21" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="27"/>
       <c r="F21" s="4"/>
@@ -2107,7 +2107,7 @@
     <row r="22" spans="3:7">
       <c r="C22" s="45"/>
       <c r="D22" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="27"/>
       <c r="F22" s="4"/>
@@ -2116,7 +2116,7 @@
     <row r="23" spans="3:7">
       <c r="C23" s="45"/>
       <c r="D23" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="4"/>
@@ -2125,7 +2125,7 @@
     <row r="24" spans="3:7">
       <c r="C24" s="45"/>
       <c r="D24" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" s="27"/>
       <c r="F24" s="4"/>
@@ -2134,7 +2134,7 @@
     <row r="25" spans="3:7">
       <c r="C25" s="45"/>
       <c r="D25" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25" s="27"/>
       <c r="F25" s="4"/>
@@ -2143,7 +2143,7 @@
     <row r="26" spans="3:7">
       <c r="C26" s="45"/>
       <c r="D26" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" s="27"/>
       <c r="F26" s="4"/>
@@ -2152,7 +2152,7 @@
     <row r="27" spans="3:7">
       <c r="C27" s="45"/>
       <c r="D27" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="4"/>
@@ -2161,7 +2161,7 @@
     <row r="28" spans="3:7">
       <c r="C28" s="45"/>
       <c r="D28" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="4"/>
@@ -2170,7 +2170,7 @@
     <row r="29" spans="3:7">
       <c r="C29" s="45"/>
       <c r="D29" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="4"/>
@@ -2179,7 +2179,7 @@
     <row r="30" spans="3:7" ht="13.5" thickBot="1">
       <c r="C30" s="45"/>
       <c r="D30" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E30" s="27"/>
       <c r="F30" s="4"/>
@@ -2188,7 +2188,7 @@
     <row r="31" spans="3:7" ht="13.5" thickBot="1">
       <c r="C31" s="45"/>
       <c r="D31" s="42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="29"/>
@@ -2196,10 +2196,10 @@
     </row>
     <row r="32" spans="3:7">
       <c r="C32" s="45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E32" s="27"/>
       <c r="F32" s="4"/>
@@ -2208,7 +2208,7 @@
     <row r="33" spans="3:7">
       <c r="C33" s="45"/>
       <c r="D33" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E33" s="27"/>
       <c r="F33" s="4"/>
@@ -2217,7 +2217,7 @@
     <row r="34" spans="3:7" ht="13.5" thickBot="1">
       <c r="C34" s="45"/>
       <c r="D34" s="27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E34" s="27"/>
       <c r="F34" s="4"/>
@@ -2226,7 +2226,7 @@
     <row r="35" spans="3:7" ht="13.5" thickBot="1">
       <c r="C35" s="45"/>
       <c r="D35" s="42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="29"/>
@@ -2234,10 +2234,10 @@
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E36" s="27"/>
       <c r="F36" s="4"/>
@@ -2246,7 +2246,7 @@
     <row r="37" spans="3:7">
       <c r="C37" s="45"/>
       <c r="D37" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E37" s="27"/>
       <c r="F37" s="4"/>
@@ -2255,7 +2255,7 @@
     <row r="38" spans="3:7" ht="13.5" thickBot="1">
       <c r="C38" s="45"/>
       <c r="D38" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E38" s="27"/>
       <c r="F38" s="4"/>
@@ -2264,7 +2264,7 @@
     <row r="39" spans="3:7" ht="13.5" thickBot="1">
       <c r="C39" s="45"/>
       <c r="D39" s="42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="29"/>
@@ -2272,10 +2272,10 @@
     </row>
     <row r="40" spans="3:7">
       <c r="C40" s="45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D40" s="41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E40" s="27"/>
       <c r="F40" s="4"/>
@@ -2284,7 +2284,7 @@
     <row r="41" spans="3:7">
       <c r="C41" s="45"/>
       <c r="D41" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E41" s="27"/>
       <c r="F41" s="4"/>
@@ -2293,7 +2293,7 @@
     <row r="42" spans="3:7">
       <c r="C42" s="45"/>
       <c r="D42" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E42" s="27"/>
       <c r="F42" s="4"/>
@@ -2302,7 +2302,7 @@
     <row r="43" spans="3:7" ht="13.5" thickBot="1">
       <c r="C43" s="45"/>
       <c r="D43" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E43" s="27"/>
       <c r="F43" s="4"/>
@@ -2311,7 +2311,7 @@
     <row r="44" spans="3:7" ht="13.5" thickBot="1">
       <c r="C44" s="45"/>
       <c r="D44" s="42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="29"/>
@@ -2319,10 +2319,10 @@
     </row>
     <row r="45" spans="3:7">
       <c r="C45" s="45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E45" s="27"/>
       <c r="F45" s="4"/>
@@ -2331,7 +2331,7 @@
     <row r="46" spans="3:7">
       <c r="C46" s="45"/>
       <c r="D46" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E46" s="27"/>
       <c r="F46" s="4"/>
@@ -2340,7 +2340,7 @@
     <row r="47" spans="3:7">
       <c r="C47" s="45"/>
       <c r="D47" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E47" s="27"/>
       <c r="F47" s="4"/>
@@ -2349,7 +2349,7 @@
     <row r="48" spans="3:7" ht="13.5" thickBot="1">
       <c r="C48" s="45"/>
       <c r="D48" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E48" s="27"/>
       <c r="F48" s="4"/>
@@ -2358,7 +2358,7 @@
     <row r="49" spans="3:7" ht="13.5" thickBot="1">
       <c r="C49" s="45"/>
       <c r="D49" s="42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="29"/>
@@ -2366,10 +2366,10 @@
     </row>
     <row r="50" spans="3:7">
       <c r="C50" s="45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D50" s="41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E50" s="27"/>
       <c r="F50" s="4"/>
@@ -2378,7 +2378,7 @@
     <row r="51" spans="3:7">
       <c r="C51" s="45"/>
       <c r="D51" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E51" s="27"/>
       <c r="F51" s="4"/>
@@ -2387,7 +2387,7 @@
     <row r="52" spans="3:7">
       <c r="C52" s="45"/>
       <c r="D52" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E52" s="27"/>
       <c r="F52" s="4"/>
@@ -2396,7 +2396,7 @@
     <row r="53" spans="3:7" ht="13.5" thickBot="1">
       <c r="C53" s="45"/>
       <c r="D53" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E53" s="27"/>
       <c r="F53" s="4"/>
@@ -2405,7 +2405,7 @@
     <row r="54" spans="3:7" ht="13.5" thickBot="1">
       <c r="C54" s="45"/>
       <c r="D54" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="29"/>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="55" spans="3:7">
       <c r="C55" s="45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D55" s="41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E55" s="27"/>
       <c r="F55" s="4"/>
@@ -2425,7 +2425,7 @@
     <row r="56" spans="3:7">
       <c r="C56" s="26"/>
       <c r="D56" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E56" s="27"/>
       <c r="F56" s="4"/>
@@ -2434,7 +2434,7 @@
     <row r="57" spans="3:7" ht="13.5" thickBot="1">
       <c r="C57" s="26"/>
       <c r="D57" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E57" s="27"/>
       <c r="F57" s="4"/>
@@ -2443,7 +2443,7 @@
     <row r="58" spans="3:7" ht="13.5" thickBot="1">
       <c r="C58" s="26"/>
       <c r="D58" s="42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="29"/>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="64" spans="3:7">
       <c r="C64" s="43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="65" spans="1:7" ht="13.5" thickBot="1">
       <c r="C65" s="44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D65" s="34"/>
       <c r="E65" s="34"/>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="66" spans="1:7" ht="13.5" thickBot="1">
       <c r="C66" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D66" s="37"/>
       <c r="E66" s="37"/>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="68" spans="1:7" ht="14.25">
       <c r="A68" s="53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C68" s="40"/>
       <c r="D68" s="5"/>
